--- a/Documentation/Байтовые команды YoVirMac 0.5.xlsx
+++ b/Documentation/Байтовые команды YoVirMac 0.5.xlsx
@@ -84,9 +84,6 @@
     <t>Inc</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>Sub</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>Меньше</t>
+  </si>
+  <si>
+    <t>Dcr</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -741,11 +741,11 @@
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -758,11 +758,11 @@
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -771,17 +771,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -791,14 +791,14 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -808,14 +808,14 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -824,17 +824,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -844,14 +844,14 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -860,17 +860,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -880,14 +880,14 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -896,17 +896,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -916,14 +916,14 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -932,17 +932,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -955,11 +955,11 @@
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1038,17 +1038,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1061,11 +1061,11 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1078,11 +1078,11 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1092,14 +1092,14 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1109,14 +1109,14 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1126,14 +1126,14 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1143,14 +1143,14 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1176,17 +1176,17 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1213,14 +1213,14 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>7</v>

--- a/Documentation/Байтовые команды YoVirMac 0.5.xlsx
+++ b/Documentation/Байтовые команды YoVirMac 0.5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
   <si>
     <t>Название команды</t>
   </si>
@@ -316,6 +316,57 @@
   </si>
   <si>
     <t>Dcr</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ссылка для перехода</t>
+  </si>
+  <si>
+    <t>ссылка для перехода, ссылка на условие</t>
+  </si>
+  <si>
+    <t>объект для создания</t>
+  </si>
+  <si>
+    <t>ссылка на строку с именем</t>
+  </si>
+  <si>
+    <t>ссылка на приёмник, ссылка на источник</t>
+  </si>
+  <si>
+    <t>ссылка на вывод</t>
+  </si>
+  <si>
+    <t>ссылка на приёмник</t>
+  </si>
+  <si>
+    <t>ссылка на источник</t>
+  </si>
+  <si>
+    <t>ссылка на функцию</t>
+  </si>
+  <si>
+    <t>ссылка на объект, ссылка на подобъект</t>
+  </si>
+  <si>
+    <t>ссылка на объект, ссылка на подобъект, ссылка на значение</t>
+  </si>
+  <si>
+    <t>ссылка на аргумент</t>
+  </si>
+  <si>
+    <t>ссылка на левый аргумент, ссылка на правый аргумент</t>
+  </si>
+  <si>
+    <t>ссылка на делимое, ссылка на делитель</t>
+  </si>
+  <si>
+    <t>ссылка на левый множитель, ссылка на правый множитель</t>
+  </si>
+  <si>
+    <t>ссылка на уменьшаемое, ссылка на вычитаемое</t>
   </si>
 </sst>
 </file>
@@ -682,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +777,9 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
@@ -743,12 +796,14 @@
       <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -760,7 +815,9 @@
       <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>72</v>
       </c>
@@ -779,7 +836,9 @@
       <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>73</v>
       </c>
@@ -796,7 +855,9 @@
       <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>74</v>
       </c>
@@ -813,7 +874,9 @@
       <c r="D7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>75</v>
       </c>
@@ -832,7 +895,9 @@
       <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>76</v>
       </c>
@@ -849,7 +914,9 @@
       <c r="D9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>77</v>
       </c>
@@ -868,7 +935,9 @@
       <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>78</v>
       </c>
@@ -885,7 +954,9 @@
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>79</v>
       </c>
@@ -904,7 +975,9 @@
       <c r="D12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>80</v>
       </c>
@@ -921,7 +994,9 @@
       <c r="D13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>81</v>
       </c>
@@ -940,12 +1015,14 @@
       <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -957,7 +1034,9 @@
       <c r="D15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
@@ -976,12 +1055,14 @@
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -993,12 +1074,14 @@
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1010,12 +1093,14 @@
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1027,7 +1112,9 @@
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>87</v>
       </c>
@@ -1046,12 +1133,14 @@
       <c r="D20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1063,7 +1152,9 @@
       <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>89</v>
       </c>
@@ -1080,7 +1171,9 @@
       <c r="D22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>90</v>
       </c>
@@ -1097,12 +1190,14 @@
       <c r="D23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F23" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1114,12 +1209,14 @@
       <c r="D24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1131,12 +1228,14 @@
       <c r="D25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="F25" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1148,12 +1247,14 @@
       <c r="D26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="F26" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1165,12 +1266,14 @@
       <c r="D27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="F27" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1184,12 +1287,14 @@
       <c r="D28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F28" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1201,12 +1306,14 @@
       <c r="D29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F29" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1218,7 +1325,9 @@
       <c r="D30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F30" s="6" t="s">
         <v>98</v>
       </c>
@@ -1237,7 +1346,9 @@
       <c r="D31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F31" s="6" t="s">
         <v>9</v>
       </c>

--- a/Documentation/Байтовые команды YoVirMac 0.5.xlsx
+++ b/Documentation/Байтовые команды YoVirMac 0.5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>Название команды</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>ссылка на уменьшаемое, ссылка на вычитаемое</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>ссылка на объект</t>
+  </si>
+  <si>
+    <t>Возвращает размер объекта</t>
   </si>
 </sst>
 </file>
@@ -731,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +798,7 @@
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A31" si="0">ROW(3:3) - 2</f>
+        <f t="shared" ref="A3:A32" si="0">ROW(3:3) - 2</f>
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -881,485 +893,496 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(8:8) - 2</f>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(9:9) - 2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>ROW(10:10) - 2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(11:11) - 2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>ROW(12:12) - 2</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>ROW(13:13) - 2</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(14:14) - 2</f>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>ROW(15:15) - 2</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>ROW(16:16) - 2</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>ROW(17:17) - 2</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(18:18) - 2</f>
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(19:19) - 2</f>
         <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>ROW(20:20) - 2</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>ROW(21:21) - 2</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(22:22) - 2</f>
         <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(23:23) - 2</f>
         <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(24:24) - 2</f>
         <v>22</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(25:25) - 2</f>
         <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(26:26) - 2</f>
         <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(27:27) - 2</f>
         <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>ROW(28:28) - 2</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(29:29) - 2</f>
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW(30:30) - 2</f>
         <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f>ROW(31:31) - 2</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f>ROW(32:32) - 2</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1401,11 +1424,19 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
